--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H2">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1653213333333333</v>
+        <v>0.1375076666666667</v>
       </c>
       <c r="N2">
-        <v>0.495964</v>
+        <v>0.412523</v>
       </c>
       <c r="O2">
-        <v>0.07076294988206985</v>
+        <v>0.0640991855118124</v>
       </c>
       <c r="P2">
-        <v>0.07076294988206984</v>
+        <v>0.0640991855118124</v>
       </c>
       <c r="Q2">
-        <v>1.311629866148</v>
+        <v>0.4645323414197777</v>
       </c>
       <c r="R2">
-        <v>11.804668795332</v>
+        <v>4.180791072778</v>
       </c>
       <c r="S2">
-        <v>0.02783807431632182</v>
+        <v>0.01267712144025359</v>
       </c>
       <c r="T2">
-        <v>0.02783807431632181</v>
+        <v>0.01267712144025359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H3">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I3">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J3">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.377901</v>
       </c>
       <c r="O3">
-        <v>0.7673059716707931</v>
+        <v>0.8356360102664855</v>
       </c>
       <c r="P3">
-        <v>0.7673059716707932</v>
+        <v>0.8356360102664855</v>
       </c>
       <c r="Q3">
-        <v>14.222434629907</v>
+        <v>6.05592644156511</v>
       </c>
       <c r="R3">
-        <v>128.001911669163</v>
+        <v>54.50333797408599</v>
       </c>
       <c r="S3">
-        <v>0.3018574084083147</v>
+        <v>0.1652666737870645</v>
       </c>
       <c r="T3">
-        <v>0.3018574084083147</v>
+        <v>0.1652666737870645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H4">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I4">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J4">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3783146666666666</v>
+        <v>0.2150913333333333</v>
       </c>
       <c r="N4">
-        <v>1.134944</v>
+        <v>0.645274</v>
       </c>
       <c r="O4">
-        <v>0.161931078447137</v>
+        <v>0.1002648042217022</v>
       </c>
       <c r="P4">
-        <v>0.161931078447137</v>
+        <v>0.1002648042217021</v>
       </c>
       <c r="Q4">
-        <v>3.001480847007999</v>
+        <v>0.7266277082182221</v>
       </c>
       <c r="R4">
-        <v>27.013327623072</v>
+        <v>6.539649373963999</v>
       </c>
       <c r="S4">
-        <v>0.06370352569312197</v>
+        <v>0.01982972309480488</v>
       </c>
       <c r="T4">
-        <v>0.06370352569312197</v>
+        <v>0.01982972309480488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.745824</v>
       </c>
       <c r="I5">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J5">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1653213333333333</v>
+        <v>0.1375076666666667</v>
       </c>
       <c r="N5">
-        <v>0.495964</v>
+        <v>0.412523</v>
       </c>
       <c r="O5">
-        <v>0.07076294988206985</v>
+        <v>0.0640991855118124</v>
       </c>
       <c r="P5">
-        <v>0.07076294988206984</v>
+        <v>0.0640991855118124</v>
       </c>
       <c r="Q5">
-        <v>1.914741983815111</v>
+        <v>1.592605728216889</v>
       </c>
       <c r="R5">
-        <v>17.232677854336</v>
+        <v>14.333451553952</v>
       </c>
       <c r="S5">
-        <v>0.04063854523118341</v>
+        <v>0.0434623263502863</v>
       </c>
       <c r="T5">
-        <v>0.0406385452311834</v>
+        <v>0.0434623263502863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.745824</v>
       </c>
       <c r="I6">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J6">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.377901</v>
       </c>
       <c r="O6">
-        <v>0.7673059716707931</v>
+        <v>0.8356360102664855</v>
       </c>
       <c r="P6">
-        <v>0.7673059716707932</v>
+        <v>0.8356360102664855</v>
       </c>
       <c r="Q6">
         <v>20.76217795949155</v>
@@ -818,10 +818,10 @@
         <v>186.859601635424</v>
       </c>
       <c r="S6">
-        <v>0.4406571304314959</v>
+        <v>0.5666013491163668</v>
       </c>
       <c r="T6">
-        <v>0.440657130431496</v>
+        <v>0.5666013491163668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.745824</v>
       </c>
       <c r="I7">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J7">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3783146666666666</v>
+        <v>0.2150913333333333</v>
       </c>
       <c r="N7">
-        <v>1.134944</v>
+        <v>0.645274</v>
       </c>
       <c r="O7">
-        <v>0.161931078447137</v>
+        <v>0.1002648042217022</v>
       </c>
       <c r="P7">
-        <v>0.161931078447137</v>
+        <v>0.1002648042217021</v>
       </c>
       <c r="Q7">
-        <v>4.381618274872888</v>
+        <v>2.491175203975111</v>
       </c>
       <c r="R7">
-        <v>39.434564473856</v>
+        <v>22.420576835776</v>
       </c>
       <c r="S7">
-        <v>0.09299560669496217</v>
+        <v>0.0679843528078547</v>
       </c>
       <c r="T7">
-        <v>0.09299560669496217</v>
+        <v>0.06798435280785468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H8">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I8">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J8">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1653213333333333</v>
+        <v>0.1375076666666667</v>
       </c>
       <c r="N8">
-        <v>0.495964</v>
+        <v>0.412523</v>
       </c>
       <c r="O8">
-        <v>0.07076294988206985</v>
+        <v>0.0640991855118124</v>
       </c>
       <c r="P8">
-        <v>0.07076294988206984</v>
+        <v>0.0640991855118124</v>
       </c>
       <c r="Q8">
-        <v>0.1077236563355556</v>
+        <v>0.2916715453248889</v>
       </c>
       <c r="R8">
-        <v>0.9695129070200001</v>
+        <v>2.625043907924</v>
       </c>
       <c r="S8">
-        <v>0.002286330334564623</v>
+        <v>0.00795973772127251</v>
       </c>
       <c r="T8">
-        <v>0.002286330334564622</v>
+        <v>0.00795973772127251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H9">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I9">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J9">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.377901</v>
       </c>
       <c r="O9">
-        <v>0.7673059716707931</v>
+        <v>0.8356360102664855</v>
       </c>
       <c r="P9">
-        <v>0.7673059716707932</v>
+        <v>0.8356360102664855</v>
       </c>
       <c r="Q9">
-        <v>1.168083084922778</v>
+        <v>3.802407854287555</v>
       </c>
       <c r="R9">
-        <v>10.512747764305</v>
+        <v>34.221670688588</v>
       </c>
       <c r="S9">
-        <v>0.02479143283098252</v>
+        <v>0.1037679873630541</v>
       </c>
       <c r="T9">
-        <v>0.02479143283098252</v>
+        <v>0.1037679873630541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H10">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I10">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J10">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3783146666666666</v>
+        <v>0.2150913333333333</v>
       </c>
       <c r="N10">
-        <v>1.134944</v>
+        <v>0.645274</v>
       </c>
       <c r="O10">
-        <v>0.161931078447137</v>
+        <v>0.1002648042217022</v>
       </c>
       <c r="P10">
-        <v>0.161931078447137</v>
+        <v>0.1002648042217021</v>
       </c>
       <c r="Q10">
-        <v>0.2465104673244445</v>
+        <v>0.4562365364791112</v>
       </c>
       <c r="R10">
-        <v>2.21859420592</v>
+        <v>4.106128828312</v>
       </c>
       <c r="S10">
-        <v>0.005231946059052896</v>
+        <v>0.01245072831904257</v>
       </c>
       <c r="T10">
-        <v>0.005231946059052896</v>
+        <v>0.01245072831904257</v>
       </c>
     </row>
   </sheetData>
